--- a/sdet27/data/testscript.xlsx
+++ b/sdet27/data/testscript.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\sdet27\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\akakfakfa\sdet27\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4281E8-0B3C-4026-8439-E99574A75163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D198E1-B544-41F6-9604-9734D85BD9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orgname" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Ty_</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Industies</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -398,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +462,40 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C789AB11-68F4-485A-B4F0-EC7574B26C57}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
